--- a/app/Licenciatura_em_Engenharia_Mecanica.xlsx
+++ b/app/Licenciatura_em_Engenharia_Mecanica.xlsx
@@ -26,34 +26,31 @@
     <sheet name="20151926" sheetId="16" r:id="rId19"/>
     <sheet name="20151891" sheetId="17" r:id="rId20"/>
     <sheet name="20151913" sheetId="18" r:id="rId21"/>
-    <sheet name="20154437" sheetId="19" r:id="rId22"/>
-    <sheet name="20151906" sheetId="20" r:id="rId23"/>
-    <sheet name="20151897" sheetId="21" r:id="rId24"/>
-    <sheet name="20151895" sheetId="22" r:id="rId25"/>
-    <sheet name="20151904" sheetId="23" r:id="rId26"/>
-    <sheet name="20151892" sheetId="24" r:id="rId27"/>
-    <sheet name="20151916" sheetId="25" r:id="rId28"/>
-    <sheet name="20151907" sheetId="26" r:id="rId29"/>
-    <sheet name="20154817" sheetId="27" r:id="rId30"/>
-    <sheet name="20151893" sheetId="28" r:id="rId31"/>
-    <sheet name="20151929" sheetId="29" r:id="rId32"/>
-    <sheet name="20151894" sheetId="30" r:id="rId33"/>
-    <sheet name="20151912" sheetId="31" r:id="rId34"/>
-    <sheet name="20151920" sheetId="32" r:id="rId35"/>
-    <sheet name="20151902" sheetId="33" r:id="rId36"/>
-    <sheet name="20151896" sheetId="34" r:id="rId37"/>
-    <sheet name="20151890" sheetId="35" r:id="rId38"/>
-    <sheet name="20151908" sheetId="36" r:id="rId39"/>
-    <sheet name="20151901" sheetId="37" r:id="rId40"/>
-    <sheet name="20154436" sheetId="38" r:id="rId41"/>
-    <sheet name="20151928" sheetId="39" r:id="rId42"/>
-    <sheet name="20151911" sheetId="40" r:id="rId43"/>
-    <sheet name="20151905" sheetId="41" r:id="rId44"/>
-    <sheet name="20151917" sheetId="42" r:id="rId45"/>
-    <sheet name="20151915" sheetId="43" r:id="rId46"/>
-    <sheet name="20151925" sheetId="44" r:id="rId47"/>
-    <sheet name="Sheet2" sheetId="45" r:id="rId48"/>
-    <sheet name="Sheet3" sheetId="46" r:id="rId49"/>
+    <sheet name="20151906" sheetId="19" r:id="rId22"/>
+    <sheet name="20151897" sheetId="20" r:id="rId23"/>
+    <sheet name="20151895" sheetId="21" r:id="rId24"/>
+    <sheet name="20151904" sheetId="22" r:id="rId25"/>
+    <sheet name="20151892" sheetId="23" r:id="rId26"/>
+    <sheet name="20151916" sheetId="24" r:id="rId27"/>
+    <sheet name="20151907" sheetId="25" r:id="rId28"/>
+    <sheet name="20151893" sheetId="26" r:id="rId29"/>
+    <sheet name="20151929" sheetId="27" r:id="rId30"/>
+    <sheet name="20151894" sheetId="28" r:id="rId31"/>
+    <sheet name="20151912" sheetId="29" r:id="rId32"/>
+    <sheet name="20151920" sheetId="30" r:id="rId33"/>
+    <sheet name="20151902" sheetId="31" r:id="rId34"/>
+    <sheet name="20151896" sheetId="32" r:id="rId35"/>
+    <sheet name="20151890" sheetId="33" r:id="rId36"/>
+    <sheet name="20151908" sheetId="34" r:id="rId37"/>
+    <sheet name="20151901" sheetId="35" r:id="rId38"/>
+    <sheet name="20151928" sheetId="36" r:id="rId39"/>
+    <sheet name="20151911" sheetId="37" r:id="rId40"/>
+    <sheet name="20151905" sheetId="38" r:id="rId41"/>
+    <sheet name="20151917" sheetId="39" r:id="rId42"/>
+    <sheet name="20151915" sheetId="40" r:id="rId43"/>
+    <sheet name="20151925" sheetId="41" r:id="rId44"/>
+    <sheet name="Sheet2" sheetId="42" r:id="rId45"/>
+    <sheet name="Sheet3" sheetId="43" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -61,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -210,9 +207,6 @@
     <t>Maria Janeiro Mutilando</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Amelia Joaquim Nuvunga</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090602495848C</t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>Florinda Zacarias Uaeca</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100041048C</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
     <t>OfÉlia Zefanias Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -354,9 +339,6 @@
     <t>Alcina Maria Muchanga</t>
   </si>
   <si>
-    <t>Distrito de Xai-Xai</t>
-  </si>
-  <si>
     <t>090102815996N</t>
   </si>
   <si>
@@ -381,9 +363,6 @@
     <t>Domingas Maembo</t>
   </si>
   <si>
-    <t>Distrito de Gurué</t>
-  </si>
-  <si>
     <t>+258844242953</t>
   </si>
   <si>
@@ -405,9 +384,6 @@
     <t>Belarmina Francisco Muianga</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>+258847073574</t>
   </si>
   <si>
@@ -453,9 +429,6 @@
     <t>Zaiaia RaÚl</t>
   </si>
   <si>
-    <t>Distrito de Dondo</t>
-  </si>
-  <si>
     <t>070101459423M</t>
   </si>
   <si>
@@ -525,9 +498,6 @@
     <t>Azelia Albino Novela</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110500701301M</t>
   </si>
   <si>
@@ -552,9 +522,6 @@
     <t>Anita Sozinho</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060101375146S</t>
   </si>
   <si>
@@ -579,9 +546,6 @@
     <t>Ana Lackson</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>+258861002991</t>
   </si>
   <si>
@@ -603,9 +567,6 @@
     <t>Otilia Vasco Waia</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>070802709347F</t>
   </si>
   <si>
@@ -633,336 +594,315 @@
     <t>+258845035691</t>
   </si>
   <si>
-    <t>Maunze</t>
-  </si>
-  <si>
-    <t>Antonio Silvino</t>
+    <t>Matunduane</t>
+  </si>
+  <si>
+    <t>Shelves Mocanchel</t>
+  </si>
+  <si>
+    <t>1997-03-09</t>
+  </si>
+  <si>
+    <t>Mocanchel Matunduane</t>
+  </si>
+  <si>
+    <t>Maria Luisa Chissano</t>
+  </si>
+  <si>
+    <t>+258827695219</t>
+  </si>
+  <si>
+    <t>Marrime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuel Vicente </t>
+  </si>
+  <si>
+    <t>1998-03-16</t>
+  </si>
+  <si>
+    <t>Vicente Marrime Gulane</t>
+  </si>
+  <si>
+    <t>Maltide Americo Ouana</t>
+  </si>
+  <si>
+    <t>110500174670F</t>
+  </si>
+  <si>
+    <t>+258849573205</t>
+  </si>
+  <si>
+    <t>Manhoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleva David Jone </t>
+  </si>
+  <si>
+    <t>1987-04-15</t>
+  </si>
+  <si>
+    <t>David Jone Manhoa</t>
+  </si>
+  <si>
+    <t>Secai Taramusa</t>
+  </si>
+  <si>
+    <t>110100321584J</t>
+  </si>
+  <si>
+    <t>+258827815226</t>
+  </si>
+  <si>
+    <t>Escola Sec Samora Machel</t>
+  </si>
+  <si>
+    <t>Manhica</t>
+  </si>
+  <si>
+    <t>Fenias Aida</t>
+  </si>
+  <si>
+    <t>1992-09-22</t>
+  </si>
+  <si>
+    <t>Aida Antonio Manhica</t>
+  </si>
+  <si>
+    <t>110100027725Q</t>
+  </si>
+  <si>
+    <t>+258821752722</t>
+  </si>
+  <si>
+    <t>Magumo</t>
+  </si>
+  <si>
+    <t>Massunde Antonio</t>
+  </si>
+  <si>
+    <t>1992-05-10</t>
+  </si>
+  <si>
+    <t>Antonio Magumo Muzanganembo</t>
+  </si>
+  <si>
+    <t>Augusta Guva</t>
+  </si>
+  <si>
+    <t>110300356842M</t>
+  </si>
+  <si>
+    <t>+258825638808</t>
+  </si>
+  <si>
+    <t>Magaia</t>
+  </si>
+  <si>
+    <t>Ornelio Antonio</t>
+  </si>
+  <si>
+    <t>1988-08-13</t>
+  </si>
+  <si>
+    <t>Antonio Teixeira Magaia</t>
+  </si>
+  <si>
+    <t>Belinda E. Daniel Boane</t>
+  </si>
+  <si>
+    <t>110100025844B</t>
+  </si>
+  <si>
+    <t>+258828638331</t>
+  </si>
+  <si>
+    <t>Macumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Magaure Mareve </t>
+  </si>
+  <si>
+    <t>1996-01-01</t>
+  </si>
+  <si>
+    <t>Gabriel Mareve Macumo</t>
+  </si>
+  <si>
+    <t>Lurio  Ponda</t>
+  </si>
+  <si>
+    <t>070104411672C</t>
+  </si>
+  <si>
+    <t>+258827094590</t>
+  </si>
+  <si>
+    <t>Outra - Prov. Sofala</t>
+  </si>
+  <si>
+    <t>Gungulo</t>
+  </si>
+  <si>
+    <t>Custodio  Armindo</t>
+  </si>
+  <si>
+    <t>1991-10-08</t>
+  </si>
+  <si>
+    <t>Armindo Fernando Gungulo</t>
+  </si>
+  <si>
+    <t>Sandra Regina Marinheiro</t>
+  </si>
+  <si>
+    <t>110104663496I</t>
+  </si>
+  <si>
+    <t>+258820101441</t>
+  </si>
+  <si>
+    <t>Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rui </t>
+  </si>
+  <si>
+    <t>1995-04-15</t>
+  </si>
+  <si>
+    <t>Rui Manuel Gomes</t>
+  </si>
+  <si>
+    <t>Carolina Jose Maculove</t>
+  </si>
+  <si>
+    <t>110504818879M</t>
+  </si>
+  <si>
+    <t>+258826632913</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Sassa Maria</t>
+  </si>
+  <si>
+    <t>1997-09-07</t>
+  </si>
+  <si>
+    <t>Justino Francisco</t>
+  </si>
+  <si>
+    <t>Tatiana Y. P. Francisco</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>110100247357F</t>
+  </si>
+  <si>
+    <t>+258825428372</t>
+  </si>
+  <si>
+    <t>Colegio Kitabu</t>
+  </si>
+  <si>
+    <t>Dombo</t>
+  </si>
+  <si>
+    <t>Constancio</t>
+  </si>
+  <si>
+    <t>1998-12-04</t>
+  </si>
+  <si>
+    <t>Augusto Dombo</t>
+  </si>
+  <si>
+    <t>Constancia Tamele</t>
+  </si>
+  <si>
+    <t>100102653284A</t>
+  </si>
+  <si>
+    <t>+258848792065</t>
+  </si>
+  <si>
+    <t>Cuamba</t>
+  </si>
+  <si>
+    <t>Ramalho Arlindo</t>
+  </si>
+  <si>
+    <t>1994-08-15</t>
+  </si>
+  <si>
+    <t>Arlindo Pedro Cuamba</t>
+  </si>
+  <si>
+    <t>Alice Jorge Sambo</t>
+  </si>
+  <si>
+    <t>100100613972B</t>
+  </si>
+  <si>
+    <t>+258840196047</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t>KÁtia Nelson</t>
+  </si>
+  <si>
+    <t>1997-12-14</t>
+  </si>
+  <si>
+    <t>Nelson AntÓnio Cossa</t>
+  </si>
+  <si>
+    <t>LÍdia Efraimo Maxaieie</t>
+  </si>
+  <si>
+    <t>110100292785N</t>
+  </si>
+  <si>
+    <t>+258827461278</t>
+  </si>
+  <si>
+    <t>Chone</t>
+  </si>
+  <si>
+    <t>Ricardo Eusebio</t>
+  </si>
+  <si>
+    <t>1994-02-07</t>
+  </si>
+  <si>
+    <t>Eusebio Chone</t>
+  </si>
+  <si>
+    <t>Cacilda Bernardo Mafumo</t>
+  </si>
+  <si>
+    <t>110200131973N</t>
+  </si>
+  <si>
+    <t>+258847247496</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hotelio Francisco</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Matunduane</t>
-  </si>
-  <si>
-    <t>Shelves Mocanchel</t>
-  </si>
-  <si>
-    <t>1997-03-09</t>
-  </si>
-  <si>
-    <t>Mocanchel Matunduane</t>
-  </si>
-  <si>
-    <t>Maria Luisa Chissano</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>+258827695219</t>
-  </si>
-  <si>
-    <t>Marrime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emanuel Vicente </t>
-  </si>
-  <si>
-    <t>1998-03-16</t>
-  </si>
-  <si>
-    <t>Vicente Marrime Gulane</t>
-  </si>
-  <si>
-    <t>Maltide Americo Ouana</t>
-  </si>
-  <si>
-    <t>110500174670F</t>
-  </si>
-  <si>
-    <t>+258849573205</t>
-  </si>
-  <si>
-    <t>Manhoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleva David Jone </t>
-  </si>
-  <si>
-    <t>1987-04-15</t>
-  </si>
-  <si>
-    <t>David Jone Manhoa</t>
-  </si>
-  <si>
-    <t>Secai Taramusa</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110100321584J</t>
-  </si>
-  <si>
-    <t>+258827815226</t>
-  </si>
-  <si>
-    <t>Escola Sec Samora Machel</t>
-  </si>
-  <si>
-    <t>Manhica</t>
-  </si>
-  <si>
-    <t>Fenias Aida</t>
-  </si>
-  <si>
-    <t>1992-09-22</t>
-  </si>
-  <si>
-    <t>Aida Antonio Manhica</t>
-  </si>
-  <si>
-    <t>110100027725Q</t>
-  </si>
-  <si>
-    <t>+258821752722</t>
-  </si>
-  <si>
-    <t>Magumo</t>
-  </si>
-  <si>
-    <t>Massunde Antonio</t>
-  </si>
-  <si>
-    <t>1992-05-10</t>
-  </si>
-  <si>
-    <t>Antonio Magumo Muzanganembo</t>
-  </si>
-  <si>
-    <t>Augusta Guva</t>
-  </si>
-  <si>
-    <t>110300356842M</t>
-  </si>
-  <si>
-    <t>+258825638808</t>
-  </si>
-  <si>
-    <t>Magaia</t>
-  </si>
-  <si>
-    <t>Ornelio Antonio</t>
-  </si>
-  <si>
-    <t>1988-08-13</t>
-  </si>
-  <si>
-    <t>Antonio Teixeira Magaia</t>
-  </si>
-  <si>
-    <t>Belinda E. Daniel Boane</t>
-  </si>
-  <si>
-    <t>110100025844B</t>
-  </si>
-  <si>
-    <t>+258828638331</t>
-  </si>
-  <si>
-    <t>Macumo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Magaure Mareve </t>
-  </si>
-  <si>
-    <t>1996-01-01</t>
-  </si>
-  <si>
-    <t>Gabriel Mareve Macumo</t>
-  </si>
-  <si>
-    <t>Lurio  Ponda</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
-    <t>070104411672C</t>
-  </si>
-  <si>
-    <t>+258827094590</t>
-  </si>
-  <si>
-    <t>Outra - Prov. Sofala</t>
-  </si>
-  <si>
-    <t>Júnior</t>
-  </si>
-  <si>
-    <t>Edmilson de Hilário</t>
-  </si>
-  <si>
-    <t>Gungulo</t>
-  </si>
-  <si>
-    <t>Custodio  Armindo</t>
-  </si>
-  <si>
-    <t>1991-10-08</t>
-  </si>
-  <si>
-    <t>Armindo Fernando Gungulo</t>
-  </si>
-  <si>
-    <t>Sandra Regina Marinheiro</t>
-  </si>
-  <si>
-    <t>110104663496I</t>
-  </si>
-  <si>
-    <t>+258820101441</t>
-  </si>
-  <si>
-    <t>Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rui </t>
-  </si>
-  <si>
-    <t>1995-04-15</t>
-  </si>
-  <si>
-    <t>Rui Manuel Gomes</t>
-  </si>
-  <si>
-    <t>Carolina Jose Maculove</t>
-  </si>
-  <si>
-    <t>110504818879M</t>
-  </si>
-  <si>
-    <t>+258826632913</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Sassa Maria</t>
-  </si>
-  <si>
-    <t>1997-09-07</t>
-  </si>
-  <si>
-    <t>Justino Francisco</t>
-  </si>
-  <si>
-    <t>Tatiana Y. P. Francisco</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110100247357F</t>
-  </si>
-  <si>
-    <t>+258825428372</t>
-  </si>
-  <si>
-    <t>Colegio Kitabu</t>
-  </si>
-  <si>
-    <t>Dombo</t>
-  </si>
-  <si>
-    <t>Constancio</t>
-  </si>
-  <si>
-    <t>1998-12-04</t>
-  </si>
-  <si>
-    <t>Augusto Dombo</t>
-  </si>
-  <si>
-    <t>Constancia Tamele</t>
-  </si>
-  <si>
-    <t>100102653284A</t>
-  </si>
-  <si>
-    <t>+258848792065</t>
-  </si>
-  <si>
-    <t>Cuamba</t>
-  </si>
-  <si>
-    <t>Ramalho Arlindo</t>
-  </si>
-  <si>
-    <t>1994-08-15</t>
-  </si>
-  <si>
-    <t>Arlindo Pedro Cuamba</t>
-  </si>
-  <si>
-    <t>Alice Jorge Sambo</t>
-  </si>
-  <si>
-    <t>100100613972B</t>
-  </si>
-  <si>
-    <t>+258840196047</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>KÁtia Nelson</t>
-  </si>
-  <si>
-    <t>1997-12-14</t>
-  </si>
-  <si>
-    <t>Nelson AntÓnio Cossa</t>
-  </si>
-  <si>
-    <t>LÍdia Efraimo Maxaieie</t>
-  </si>
-  <si>
-    <t>110100292785N</t>
-  </si>
-  <si>
-    <t>+258827461278</t>
-  </si>
-  <si>
-    <t>Chone</t>
-  </si>
-  <si>
-    <t>Ricardo Eusebio</t>
-  </si>
-  <si>
-    <t>1994-02-07</t>
-  </si>
-  <si>
-    <t>Eusebio Chone</t>
-  </si>
-  <si>
-    <t>Cacilda Bernardo Mafumo</t>
-  </si>
-  <si>
-    <t>110200131973N</t>
-  </si>
-  <si>
-    <t>+258847247496</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Hotelio Francisco</t>
-  </si>
-  <si>
     <t>Chauque</t>
   </si>
   <si>
@@ -1006,12 +946,6 @@
   </si>
   <si>
     <t>+258848434595</t>
-  </si>
-  <si>
-    <t>Calbe</t>
-  </si>
-  <si>
-    <t>Albino Teldio</t>
   </si>
   <si>
     <t>Bila</t>
@@ -2400,7 +2334,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2416,7 +2350,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2432,7 +2366,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2448,7 +2382,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2464,7 +2398,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2479,9 +2413,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2489,7 +2421,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2500,7 +2432,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2509,7 +2441,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2521,7 +2453,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2529,7 +2461,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2625,7 +2557,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2668,7 +2600,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2995,7 +2927,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3011,7 +2943,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3027,7 +2959,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3043,7 +2975,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3059,7 +2991,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3074,9 +3006,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3084,7 +3014,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3095,7 +3025,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3104,7 +3034,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3116,7 +3046,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3124,7 +3054,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3220,7 +3150,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3263,7 +3193,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3590,7 +3520,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3606,7 +3536,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3622,7 +3552,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3638,7 +3568,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3654,7 +3584,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3669,9 +3599,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3679,7 +3607,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3690,7 +3618,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3699,7 +3627,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3711,7 +3639,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3815,7 +3743,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3858,7 +3786,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4185,7 +4113,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4201,7 +4129,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4217,7 +4145,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4233,7 +4161,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4249,7 +4177,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4264,9 +4192,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4274,7 +4200,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4285,7 +4211,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4294,7 +4220,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4306,7 +4232,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4314,7 +4240,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4410,7 +4336,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4453,7 +4379,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4780,7 +4706,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4796,7 +4722,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4812,7 +4738,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4828,7 +4754,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4844,7 +4770,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4859,9 +4785,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4869,7 +4793,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4880,7 +4804,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4889,7 +4813,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4901,7 +4825,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4909,7 +4833,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5005,7 +4929,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5048,7 +4972,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5375,7 +5299,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5391,7 +5315,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5407,7 +5331,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5423,7 +5347,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5439,7 +5363,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5454,9 +5378,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5464,7 +5386,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5475,7 +5397,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5484,7 +5406,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5496,7 +5418,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5504,7 +5426,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5600,7 +5522,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5643,7 +5565,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5970,7 +5892,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5986,7 +5908,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6002,7 +5924,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6018,7 +5940,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6034,7 +5956,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6049,9 +5971,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6059,7 +5979,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6070,7 +5990,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6079,7 +5999,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6091,7 +6011,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6195,7 +6115,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6238,7 +6158,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6565,7 +6485,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6581,7 +6501,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6597,7 +6517,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6613,7 +6533,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6629,7 +6549,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6644,9 +6564,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6654,7 +6572,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6665,7 +6583,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6674,7 +6592,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6686,7 +6604,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6694,7 +6612,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6790,7 +6708,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6833,7 +6751,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7160,7 +7078,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7176,7 +7094,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7192,7 +7110,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7208,7 +7126,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7224,7 +7142,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7239,9 +7157,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7249,7 +7165,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7260,7 +7176,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7269,7 +7185,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7281,7 +7197,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7289,7 +7205,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7385,7 +7301,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7428,7 +7344,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7679,7 +7595,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7729,7 +7647,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154437</v>
+        <v>20151906</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7753,7 +7671,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7769,7 +7687,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7784,7 +7702,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7798,7 +7718,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7812,7 +7734,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7833,7 +7757,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7842,14 +7768,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7859,13 +7789,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>3560906</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7960,7 +7894,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7986,7 +7920,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8000,7 +7936,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8405,9 +8343,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8415,7 +8351,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8426,7 +8362,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8435,7 +8371,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8447,7 +8383,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8455,7 +8391,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8551,7 +8487,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8594,7 +8530,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8897,7 +8833,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151906</v>
+        <v>20151897</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8921,7 +8857,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8937,7 +8873,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8953,7 +8889,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8969,7 +8905,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8985,7 +8921,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9000,9 +8936,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9010,7 +8944,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9021,7 +8955,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9030,7 +8964,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9042,15 +8976,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3560906</v>
+      <c r="H17" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9146,7 +9080,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9189,7 +9123,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9492,7 +9426,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151897</v>
+        <v>20151895</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9516,7 +9450,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9532,7 +9466,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9548,7 +9482,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9564,7 +9498,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9580,7 +9514,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9595,9 +9529,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9605,7 +9537,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9616,7 +9548,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9625,7 +9557,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9637,7 +9569,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9645,7 +9577,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9741,7 +9673,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9768,7 +9700,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9784,7 +9716,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10087,7 +10019,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151895</v>
+        <v>20151904</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10111,7 +10043,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10127,7 +10059,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10143,7 +10075,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10159,7 +10091,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10174,9 +10106,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10190,9 +10120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10200,7 +10128,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10211,7 +10139,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10220,7 +10148,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10232,7 +10160,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10240,7 +10168,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10336,7 +10264,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10363,7 +10291,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10379,7 +10307,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10682,7 +10610,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151904</v>
+        <v>20151892</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10706,7 +10634,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10722,7 +10650,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10738,7 +10666,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10754,7 +10682,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10769,7 +10697,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10783,9 +10713,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10793,7 +10721,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10804,7 +10732,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10813,7 +10741,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10825,7 +10753,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10833,7 +10761,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10929,7 +10857,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10956,7 +10884,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10972,7 +10900,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11275,7 +11203,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151892</v>
+        <v>20151916</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11299,7 +11227,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11315,7 +11243,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11331,7 +11259,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11347,7 +11275,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11363,7 +11291,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11378,9 +11306,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11388,7 +11314,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11399,7 +11325,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11408,7 +11334,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11420,7 +11346,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11428,7 +11354,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11524,7 +11450,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11551,7 +11477,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11567,7 +11493,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11870,7 +11796,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151916</v>
+        <v>20151907</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11894,7 +11820,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11910,7 +11836,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11926,7 +11852,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11942,7 +11868,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11958,7 +11884,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11973,9 +11899,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11983,7 +11907,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11994,7 +11918,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12003,7 +11927,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12015,7 +11939,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12023,7 +11947,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12119,7 +12043,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12146,7 +12070,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12162,7 +12086,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12465,7 +12389,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151907</v>
+        <v>20151893</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12489,7 +12413,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12505,7 +12429,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12521,7 +12445,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12537,7 +12461,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12553,7 +12477,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12568,9 +12492,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>241</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12578,7 +12500,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12589,7 +12511,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12598,7 +12520,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12610,7 +12532,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12618,7 +12540,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12714,7 +12636,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12741,7 +12663,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12757,7 +12679,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13008,7 +12930,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -13058,7 +12982,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154817</v>
+        <v>20151929</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13082,7 +13006,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13098,7 +13022,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13113,7 +13037,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -13127,7 +13053,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -13141,7 +13069,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -13162,7 +13092,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -13171,14 +13103,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -13188,13 +13124,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -13289,7 +13229,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13315,7 +13255,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13329,7 +13271,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13631,7 +13575,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151893</v>
+        <v>20151894</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13655,7 +13599,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13671,7 +13615,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13687,7 +13631,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13703,7 +13647,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13719,7 +13663,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13734,9 +13678,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13744,7 +13686,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13755,7 +13697,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13764,7 +13706,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13776,7 +13718,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13784,7 +13726,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13880,7 +13822,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13907,7 +13849,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13923,7 +13865,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14226,7 +14168,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151929</v>
+        <v>20151912</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14250,7 +14192,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14266,7 +14208,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14282,7 +14224,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14298,7 +14240,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14314,7 +14256,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14329,9 +14271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14339,7 +14279,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14350,7 +14290,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14359,7 +14299,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14371,7 +14311,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14379,7 +14319,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14475,7 +14415,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14518,7 +14458,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14845,7 +14785,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14861,7 +14801,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14877,7 +14817,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14893,7 +14833,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14909,7 +14849,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14924,9 +14864,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14934,7 +14872,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14945,7 +14883,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14954,7 +14892,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14966,7 +14904,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14974,7 +14912,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15070,7 +15008,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15113,7 +15051,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15416,7 +15354,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151894</v>
+        <v>20151920</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15440,7 +15378,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15456,7 +15394,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15472,7 +15410,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15488,7 +15426,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15504,7 +15442,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15519,9 +15457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15529,7 +15465,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15540,7 +15476,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15549,7 +15485,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15561,7 +15497,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15569,7 +15505,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15665,7 +15601,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15692,7 +15628,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15708,7 +15644,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16011,7 +15947,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151912</v>
+        <v>20151902</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16035,7 +15971,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16051,7 +15987,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16067,7 +16003,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16083,7 +16019,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16099,7 +16035,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16114,9 +16050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16124,7 +16058,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16135,7 +16069,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16144,7 +16078,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16156,7 +16090,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16164,7 +16098,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16260,7 +16194,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16303,7 +16237,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16606,7 +16540,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151920</v>
+        <v>20151896</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16630,7 +16564,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16646,7 +16580,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16662,7 +16596,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16678,7 +16612,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16694,7 +16628,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16709,9 +16643,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16719,7 +16651,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16730,7 +16662,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16739,7 +16671,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16751,7 +16683,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16759,7 +16691,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16855,7 +16787,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16882,7 +16814,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16898,7 +16830,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17201,7 +17133,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151902</v>
+        <v>20151890</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17225,7 +17157,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17241,7 +17173,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17256,9 +17188,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>286</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -17272,9 +17202,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>287</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17288,9 +17216,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>288</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -17304,18 +17230,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>266</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17324,18 +17246,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17345,17 +17263,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>289</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17450,7 +17364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17476,9 +17390,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17492,9 +17404,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17796,7 +17706,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151896</v>
+        <v>20151908</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17820,7 +17730,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17836,7 +17746,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17852,7 +17762,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17868,7 +17778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17884,7 +17794,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17899,9 +17809,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17909,7 +17817,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17920,7 +17828,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17929,7 +17837,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17941,7 +17849,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17949,7 +17857,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18045,7 +17953,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18088,7 +17996,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18391,7 +18299,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151890</v>
+        <v>20151901</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18415,7 +18323,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18431,7 +18339,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18446,7 +18354,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -18460,7 +18370,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -18474,7 +18386,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -18495,7 +18409,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -18504,14 +18420,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -18521,13 +18441,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -18622,7 +18546,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18648,7 +18572,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -18662,7 +18588,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -18964,7 +18892,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151908</v>
+        <v>20151928</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18988,7 +18916,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19004,7 +18932,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19020,7 +18948,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19036,7 +18964,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19052,7 +18980,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19067,9 +18995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19077,7 +19003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19088,7 +19014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19097,7 +19023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19109,7 +19035,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19117,7 +19043,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19213,7 +19139,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19256,7 +19182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19559,7 +19485,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151901</v>
+        <v>20151911</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19583,7 +19509,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19599,7 +19525,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19615,7 +19541,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19631,7 +19557,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19647,7 +19573,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19662,9 +19588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>241</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19672,7 +19596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19683,7 +19607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19692,7 +19616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19704,7 +19628,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19712,7 +19636,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19808,7 +19732,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19835,7 +19759,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19851,7 +19775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20102,7 +20026,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20152,7 +20078,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154436</v>
+        <v>20151905</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20176,7 +20102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20192,7 +20118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20207,7 +20133,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20221,7 +20149,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20235,7 +20165,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20256,7 +20188,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20265,14 +20199,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20282,13 +20220,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20383,7 +20325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20409,7 +20351,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20423,7 +20367,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20725,7 +20671,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151928</v>
+        <v>20151917</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20828,9 +20774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20838,7 +20782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20849,7 +20793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20858,7 +20802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20870,15 +20814,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>322</v>
+      <c r="H17" s="20">
+        <v>78406629</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20974,7 +20918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21001,7 +20945,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21017,7 +20961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21344,7 +21288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21360,7 +21304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21376,7 +21320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21392,7 +21336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21408,7 +21352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21423,9 +21367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21433,7 +21375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21444,7 +21386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21453,7 +21395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21465,7 +21407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21473,7 +21415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21569,7 +21511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21612,7 +21554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21915,7 +21857,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151911</v>
+        <v>20151915</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22018,9 +21960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22028,7 +21968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22039,7 +21979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22048,7 +21988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22060,7 +22000,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22191,7 +22131,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22207,7 +22147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22510,7 +22450,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151905</v>
+        <v>20151925</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22613,9 +22553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22623,7 +22561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22634,7 +22572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22643,7 +22581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22655,7 +22593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22786,7 +22724,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22802,7 +22740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23005,1791 +22943,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151917</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>78406629</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151915</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151925</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -24813,7 +22966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24970,7 +23123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24986,7 +23139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25002,7 +23155,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25018,7 +23171,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25034,7 +23187,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25049,9 +23202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25059,7 +23210,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25070,7 +23221,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25079,7 +23230,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25091,7 +23242,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25195,7 +23346,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25238,7 +23389,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25565,7 +23716,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25581,7 +23732,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25597,7 +23748,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25613,7 +23764,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25629,7 +23780,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25644,9 +23795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25654,7 +23803,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25665,7 +23814,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25674,7 +23823,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25686,7 +23835,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25694,7 +23843,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25790,7 +23939,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25833,7 +23982,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26160,7 +24309,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26176,7 +24325,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26192,7 +24341,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26208,7 +24357,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26224,7 +24373,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26239,9 +24388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26249,7 +24396,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26260,7 +24407,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26269,7 +24416,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26281,7 +24428,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26289,7 +24436,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26385,7 +24532,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26428,7 +24575,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26755,7 +24902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26771,7 +24918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26787,7 +24934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26803,7 +24950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26819,7 +24966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26834,9 +24981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26844,7 +24989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26855,7 +25000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26864,7 +25009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26876,7 +25021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26980,7 +25125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27023,7 +25168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27350,7 +25495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27366,7 +25511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27382,7 +25527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27398,7 +25543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27414,7 +25559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27429,9 +25574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27439,7 +25582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27450,7 +25593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27459,7 +25602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27471,7 +25614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27575,7 +25718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27618,7 +25761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
